--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldallara\Documents\ArgoX3mobile\CORE\ws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491970F4-EB05-4D0A-B7A2-4D2B81D80F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD5E81-4D33-46FC-B0AD-87ECA1CDCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Elenco WS" sheetId="1" r:id="rId1"/>
-    <sheet name="Campi Ws" sheetId="2" r:id="rId2"/>
+    <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
+    <sheet name="Parametri Sottoprogramma" sheetId="4" r:id="rId2"/>
+    <sheet name="Web Service" sheetId="5" r:id="rId3"/>
+    <sheet name="Parametri WS" sheetId="6" r:id="rId4"/>
+    <sheet name="Elenco WS" sheetId="1" r:id="rId5"/>
+    <sheet name="Campi Ws" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="148">
   <si>
     <t>Nome</t>
   </si>
@@ -71,6 +75,405 @@
   </si>
   <si>
     <t>YWSLIB</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Sottoprogramma</t>
+  </si>
+  <si>
+    <t>Cod Att</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>WS (si/no)</t>
+  </si>
+  <si>
+    <t>Codice WS pubblicato</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>Supervisore</t>
+  </si>
+  <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>YSMR_ENT</t>
+  </si>
+  <si>
+    <t>C_STOENT</t>
+  </si>
+  <si>
+    <t>Controllo esistenza sito in anagrafica</t>
+  </si>
+  <si>
+    <t>AM_ITRENT</t>
+  </si>
+  <si>
+    <t>Controllo validità codice articolo</t>
+  </si>
+  <si>
+    <t>C_LOCENT</t>
+  </si>
+  <si>
+    <t>C LOC YSMR AX3M</t>
+  </si>
+  <si>
+    <t>C_LOTENT</t>
+  </si>
+  <si>
+    <t>C LOT YSMR AX3M</t>
+  </si>
+  <si>
+    <t>C_QTSTENT</t>
+  </si>
+  <si>
+    <t>C QTYSTU YSMR AX3M</t>
+  </si>
+  <si>
+    <t>C_SERNENT</t>
+  </si>
+  <si>
+    <t>C SERNUM YSMR AX3M</t>
+  </si>
+  <si>
+    <t>YCREA_ENT</t>
+  </si>
+  <si>
+    <t>ArgoX3 Mobile: creazione entrata diversa</t>
+  </si>
+  <si>
+    <t>Codice Sottoprogramma</t>
+  </si>
+  <si>
+    <t>Codice parametro</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Tipo argomento</t>
+  </si>
+  <si>
+    <t>FCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPTDAT </t>
+  </si>
+  <si>
+    <t>TRSFAM</t>
+  </si>
+  <si>
+    <t>YAX3MRESP</t>
+  </si>
+  <si>
+    <t>ITMREF</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>QTYSTU</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCTYP </t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT </t>
+  </si>
+  <si>
+    <t>SERNUM</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Per Indirizzo</t>
+  </si>
+  <si>
+    <t>Per  Valore</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Decimale</t>
+  </si>
+  <si>
+    <t>YSMO</t>
+  </si>
+  <si>
+    <t>C_STOUSC</t>
+  </si>
+  <si>
+    <t>AM_ITRUSC</t>
+  </si>
+  <si>
+    <t>C_LOCUSC</t>
+  </si>
+  <si>
+    <t>C_LOTUSC</t>
+  </si>
+  <si>
+    <t>C_QTSTUSC</t>
+  </si>
+  <si>
+    <t>C_SERNUSC</t>
+  </si>
+  <si>
+    <t>YCREA_USC</t>
+  </si>
+  <si>
+    <t>C FCY YSMO AX3M</t>
+  </si>
+  <si>
+    <t>AM ITMREF YSMO AX3M</t>
+  </si>
+  <si>
+    <t>C LOC YSMO AX3M</t>
+  </si>
+  <si>
+    <t>C LOT YSMO AX3M</t>
+  </si>
+  <si>
+    <t>C QTYSTU YSMO AX3M</t>
+  </si>
+  <si>
+    <t>C SERNUM YSMO AX3M</t>
+  </si>
+  <si>
+    <t>Creazione uscita YSMO AX3M</t>
+  </si>
+  <si>
+    <t>Per Valore</t>
+  </si>
+  <si>
+    <t>YSOH</t>
+  </si>
+  <si>
+    <t>C_FCYSOH</t>
+  </si>
+  <si>
+    <t>AS_SOHSOH</t>
+  </si>
+  <si>
+    <t>C_SOHSOH</t>
+  </si>
+  <si>
+    <t>C_SOHTSOH</t>
+  </si>
+  <si>
+    <t>AM_BPRSOH</t>
+  </si>
+  <si>
+    <t>AM_ITRSOH</t>
+  </si>
+  <si>
+    <t>C_QTYSOH</t>
+  </si>
+  <si>
+    <t>C_GROPSOH</t>
+  </si>
+  <si>
+    <t>AM_REM1SOH</t>
+  </si>
+  <si>
+    <t>AM_REM2SOH</t>
+  </si>
+  <si>
+    <t>YCREA_SOH</t>
+  </si>
+  <si>
+    <t>YCALCGIAC</t>
+  </si>
+  <si>
+    <t>C_GIACFCY</t>
+  </si>
+  <si>
+    <t>C_GIACYCOD</t>
+  </si>
+  <si>
+    <t>C_GIACLOC</t>
+  </si>
+  <si>
+    <t>YCALC_GC</t>
+  </si>
+  <si>
+    <t>YCLEAR_GC</t>
+  </si>
+  <si>
+    <t>YBPC</t>
+  </si>
+  <si>
+    <t>C_BCGBPC</t>
+  </si>
+  <si>
+    <t>C_BPDDGBPC</t>
+  </si>
+  <si>
+    <t>C_CRYBPC</t>
+  </si>
+  <si>
+    <t>C_CTYBPC</t>
+  </si>
+  <si>
+    <t>C_POSCBPC</t>
+  </si>
+  <si>
+    <t>YCREA_BPC</t>
+  </si>
+  <si>
+    <t>YVSOH</t>
+  </si>
+  <si>
+    <t>AM_BPCVSOH</t>
+  </si>
+  <si>
+    <t>AM_EECVSOH</t>
+  </si>
+  <si>
+    <t>AM_NEXTPRE</t>
+  </si>
+  <si>
+    <t>AM_SOHVSOH</t>
+  </si>
+  <si>
+    <t>AS_BPCVSOH</t>
+  </si>
+  <si>
+    <t>YCLEARVSOH</t>
+  </si>
+  <si>
+    <t>YNEXTVSOH</t>
+  </si>
+  <si>
+    <t>YPREVVSOH</t>
+  </si>
+  <si>
+    <t>YVBPC</t>
+  </si>
+  <si>
+    <t>AS_BPNVBPC</t>
+  </si>
+  <si>
+    <t>C_BPCVBPC</t>
+  </si>
+  <si>
+    <t>C_BPDDVBPC</t>
+  </si>
+  <si>
+    <t>YCLEARVBPC</t>
+  </si>
+  <si>
+    <t>YCRC_VBPC</t>
+  </si>
+  <si>
+    <t>YCSTK</t>
+  </si>
+  <si>
+    <t>C_FCYCSTK</t>
+  </si>
+  <si>
+    <t>C_ITRCSTK</t>
+  </si>
+  <si>
+    <t>C_LCOCSTK</t>
+  </si>
+  <si>
+    <t>C_LOCDCSTK</t>
+  </si>
+  <si>
+    <t>C_LOTCSTK</t>
+  </si>
+  <si>
+    <t>C_QTPCCSTK</t>
+  </si>
+  <si>
+    <t>C_SERCSTK</t>
+  </si>
+  <si>
+    <t>C_SGHCSTK</t>
+  </si>
+  <si>
+    <t>YCHNGSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELCUSTOM</t>
+  </si>
+  <si>
+    <t>SEL_BADBPC</t>
+  </si>
+  <si>
+    <t>SEL_CTYBPC</t>
+  </si>
+  <si>
+    <t>SEL_ITMENT</t>
+  </si>
+  <si>
+    <t>SEL_ITMSOH</t>
+  </si>
+  <si>
+    <t>SEL_ITMSTK</t>
+  </si>
+  <si>
+    <t>SEL_ITMUSC</t>
+  </si>
+  <si>
+    <t>SEL_LCDSTK</t>
+  </si>
+  <si>
+    <t>SEL_LOCENT</t>
+  </si>
+  <si>
+    <t>SEL_LOCGC</t>
+  </si>
+  <si>
+    <t>SEL_LOCSTK</t>
+  </si>
+  <si>
+    <t>SEL_LOCUSC</t>
+  </si>
+  <si>
+    <t>SEL_LOTSTK</t>
+  </si>
+  <si>
+    <t>SEL_LOTUSC</t>
+  </si>
+  <si>
+    <t>SEL_PCDBPC</t>
+  </si>
+  <si>
+    <t>SEL_SERSTK</t>
+  </si>
+  <si>
+    <t>SEL_SGHSTK</t>
+  </si>
+  <si>
+    <t>SEL_TSOSOH</t>
   </si>
 </sst>
 </file>
@@ -102,7 +505,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -110,16 +513,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,10 +1059,2339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CF176-524D-4F01-A4B5-47E90085D90F}">
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BD388-3A0C-4C89-946B-F584CA19B428}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="11">
+        <v>100</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="11">
+        <v>100</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="11">
+        <v>100</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="11">
+        <v>100</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="25">
+        <v>100</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="25">
+        <v>100</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="25">
+        <v>100</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="25">
+        <v>100</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="25">
+        <v>100</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="27">
+        <v>100</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6268CE7-055C-4EEB-B5AE-4C7D3BC4374C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FE398-F589-4759-8EE8-B78ACE038FFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -450,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235D0A-B2FF-418E-8294-1C7640EEB855}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD5E81-4D33-46FC-B0AD-87ECA1CDCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265B2C9-D446-4DC8-8A6F-020343ED3B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="148">
   <si>
     <t>Nome</t>
   </si>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,8 +712,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,33 +750,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1062,21 +1037,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CF176-524D-4F01-A4B5-47E90085D90F}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1102,11 +1077,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1128,158 +1103,158 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1298,155 +1273,155 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="6"/>
@@ -1462,235 +1437,226 @@
       <c r="G16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="33" t="s">
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="33" t="s">
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="34" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="35" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="6"/>
@@ -1706,103 +1672,100 @@
       <c r="G27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="33" t="s">
+      <c r="D30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="35" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="6"/>
@@ -1818,125 +1781,121 @@
       <c r="G32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="33" t="s">
+      <c r="D33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="33" t="s">
+      <c r="D35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="33" t="s">
+      <c r="D36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="34" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="35" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="6"/>
@@ -1952,169 +1911,163 @@
       <c r="G38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="33" t="s">
+      <c r="D39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="33" t="s">
+      <c r="D41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="D42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="35" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C46" s="6"/>
@@ -2130,103 +2083,100 @@
       <c r="G46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="33" t="s">
+      <c r="D47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="D48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="33" t="s">
+      <c r="D49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="34" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="35" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="6"/>
@@ -2242,191 +2192,184 @@
       <c r="G51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="33" t="s">
+      <c r="D52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="33" t="s">
+      <c r="D53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="33" t="s">
+      <c r="D54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="33" t="s">
+      <c r="D55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="33" t="s">
+      <c r="D56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="33" t="s">
+      <c r="D57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="33" t="s">
+      <c r="D58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="34" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="35" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C60" s="6"/>
@@ -2442,381 +2385,365 @@
       <c r="G60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="33" t="s">
+      <c r="D61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="33" t="s">
+      <c r="D62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="33" t="s">
+      <c r="D63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="33" t="s">
+      <c r="D64" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="33" t="s">
+      <c r="D65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="33" t="s">
+      <c r="D66" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="33" t="s">
+      <c r="D67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="33" t="s">
+      <c r="D68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="33" t="s">
+      <c r="D69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="33" t="s">
+      <c r="D70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="33" t="s">
+      <c r="D73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="33" t="s">
+      <c r="D74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="33" t="s">
+      <c r="D75" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="33" t="s">
+      <c r="D76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="34" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="35" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2827,46 +2754,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BD388-3A0C-4C89-946B-F584CA19B428}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2882,239 +2809,239 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>100</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>100</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>100</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>100</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>100</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>100</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>100</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3123,228 +3050,277 @@
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="10">
         <v>100</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="10">
         <v>100</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="10">
         <v>100</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="10">
         <v>100</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="10">
         <v>100</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="10">
         <v>100</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="14">
         <v>100</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3357,9 +3333,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3375,9 +3351,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3395,15 +3371,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3450,13 +3426,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3467,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3478,7 +3454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>

--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF9E50-4ABD-4BB3-868D-BBDE0416CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697466A0-987C-4548-BF71-C4FC5040BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="176">
   <si>
     <t>Nome</t>
   </si>
@@ -320,9 +320,6 @@
     <t>YCALC_GC</t>
   </si>
   <si>
-    <t>YCLEAR_GC</t>
-  </si>
-  <si>
     <t>YBPC</t>
   </si>
   <si>
@@ -474,6 +471,93 @@
   </si>
   <si>
     <t>YAX3M</t>
+  </si>
+  <si>
+    <t>AM BPCNUM  SOH AX3M</t>
+  </si>
+  <si>
+    <t>AM ITMREF YSOH AX3M</t>
+  </si>
+  <si>
+    <t>AM - DISCRGVAL1 YSOH AX3M</t>
+  </si>
+  <si>
+    <t>AM - DISCRGVAL2 YSOH AX3M</t>
+  </si>
+  <si>
+    <t>Pre inserimento SOHNUM</t>
+  </si>
+  <si>
+    <t>C - FCY SOH</t>
+  </si>
+  <si>
+    <t>C- GROPRI YSOH AX3M</t>
+  </si>
+  <si>
+    <t>YVCSOH</t>
+  </si>
+  <si>
+    <t>C QTY YSOH AX3M</t>
+  </si>
+  <si>
+    <t>Controllo SOHNUM</t>
+  </si>
+  <si>
+    <t>C-SOHTYP YSOH AX3M</t>
+  </si>
+  <si>
+    <t>Creazione OdV YSOH AX3M</t>
+  </si>
+  <si>
+    <t>C FCY  Calc Giac AX3M</t>
+  </si>
+  <si>
+    <t>C YCODICE calc Giac</t>
+  </si>
+  <si>
+    <t>C LOC Calc Giac AX3M</t>
+  </si>
+  <si>
+    <t>Bottone Calcolo  Giac AX3M</t>
+  </si>
+  <si>
+    <t>YCLEARGC</t>
+  </si>
+  <si>
+    <t>Pulisci Calcolo Giacenza AX3M</t>
+  </si>
+  <si>
+    <t>C_ACCDBPC</t>
+  </si>
+  <si>
+    <t>C- CodContabile -ACCCOD-AX3M</t>
+  </si>
+  <si>
+    <t>C  BCG  Creaz Cl AX3M</t>
+  </si>
+  <si>
+    <t>C_BPCNBPC</t>
+  </si>
+  <si>
+    <t>C_BPCNUM _YBPC</t>
+  </si>
+  <si>
+    <t>C  Cat Ind Creaz Cl AX3M</t>
+  </si>
+  <si>
+    <t>C  nazione YBPC AX3M</t>
+  </si>
+  <si>
+    <t>C CTY Creaz Cliente AX3M</t>
+  </si>
+  <si>
+    <t>C_FWEBBPC</t>
+  </si>
+  <si>
+    <t>C_SitoWeb_ YBPC_AX3M</t>
+  </si>
+  <si>
+    <t>C CAP Creaz Cl AX3M</t>
   </si>
 </sst>
 </file>
@@ -497,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -548,26 +638,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -691,47 +761,73 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,33 +839,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1050,11 +1152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CF176-524D-4F01-A4B5-47E90085D90F}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,1748 +1168,1931 @@
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="19" t="s">
+      <c r="D20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="21" t="s">
+      <c r="C21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="C22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="C23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="21" t="s">
+      <c r="C24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="C25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="C26" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="C27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="C28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="21" t="s">
+      <c r="C29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="C30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="C39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="19" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="21" t="s">
+      <c r="C40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="19" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="21" t="s">
+      <c r="C41" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="19" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="21" t="s">
+      <c r="C42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="19" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="21" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="22" t="s">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="D45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="19" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="D46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="19" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="21" t="s">
+      <c r="D47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="19" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="21" t="s">
+      <c r="D48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="19" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="D49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="19" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="21" t="s">
+      <c r="D50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="19" t="s">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="21" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="22" t="s">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="17"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="17"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="17"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="17"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="20" t="s">
+      <c r="D58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="19" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="21" t="s">
+      <c r="D59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="19" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="21" t="s">
+      <c r="D60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="19" t="s">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="21" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="22" t="s">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="20" t="s">
+      <c r="D63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="19" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="21" t="s">
+      <c r="D64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="19" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="21" t="s">
+      <c r="D65" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="19" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="21" t="s">
+      <c r="D66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="19" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="21" t="s">
+      <c r="D67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="19" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="21" t="s">
+      <c r="D68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="21" t="s">
+      <c r="D69" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="19" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="21" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="22" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B71" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="20" t="s">
+      <c r="D72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="19" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="21" t="s">
+      <c r="D73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="19" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="21" t="s">
+      <c r="D74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="19" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="21" t="s">
+      <c r="D76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="19" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="21" t="s">
+      <c r="D77" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="19" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="21" t="s">
+      <c r="D78" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="19" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" s="21" t="s">
+      <c r="D79" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="19" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" s="21" t="s">
+      <c r="D80" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="19" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" s="21" t="s">
+      <c r="D81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="19" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="21" t="s">
+      <c r="D82" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="19" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="21" t="s">
+      <c r="D83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="19" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="21" t="s">
+      <c r="D84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="19" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" s="21" t="s">
+      <c r="D85" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="19" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="21" t="s">
+      <c r="D86" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="19" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="21" t="s">
+      <c r="D87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="19" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="21" t="s">
+      <c r="C88" s="10"/>
+      <c r="D88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" s="23" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2819,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BD388-3A0C-4C89-946B-F584CA19B428}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,555 +3118,555 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>100</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>100</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>100</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>100</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>100</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>100</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>100</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>100</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>100</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>100</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>100</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>100</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>100</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>90</v>
       </c>
     </row>

--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C61948-2E49-41BC-9730-1A644933A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E5E68C-9072-4CD5-912D-4209E0C1141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="948" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="230">
   <si>
     <t>Nome</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>YCLEAN_BPC</t>
+  </si>
+  <si>
+    <t>da cancellare</t>
+  </si>
+  <si>
+    <t>aggiorna/controlla</t>
+  </si>
+  <si>
+    <t>pulisci</t>
   </si>
 </sst>
 </file>
@@ -734,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +762,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1124,10 +1139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,7 +1156,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,10 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1223,7 +1232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,6 +1254,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1526,2408 +1550,2456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CF176-524D-4F01-A4B5-47E90085D90F}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92:K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="38" t="s">
+      <c r="D9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="D11" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="33" t="s">
+      <c r="D12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="D14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="D15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="33" t="s">
+      <c r="D16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="38" t="s">
+      <c r="D18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="33" t="s">
+      <c r="D25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="16" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="33" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="38" t="s">
+      <c r="D32" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="31" t="s">
+      <c r="D34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="33" t="s">
+      <c r="D35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="16" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="33" t="s">
+      <c r="D36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="33" t="s">
+      <c r="D37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="38" t="s">
+      <c r="D38" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41" t="s">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="31" t="s">
+      <c r="D40" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="33" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="D42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="29" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="29" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="29" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="33" t="s">
+      <c r="D45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="29" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="29" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="33" t="s">
+      <c r="D47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="29" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="D48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
-      <c r="B49" s="29" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="33" t="s">
+      <c r="D49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="29" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="33" t="s">
+      <c r="D50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="29" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="33" t="s">
+      <c r="D51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="29" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="33" t="s">
+      <c r="D52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="29" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="33" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="44"/>
-      <c r="B54" s="37" t="s">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+      <c r="B54" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="38" t="s">
+      <c r="D54" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="48" t="s">
+      <c r="D56" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="16" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="49" t="s">
+      <c r="D57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="16" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="49" t="s">
+      <c r="D58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="49" t="s">
+      <c r="D59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="16" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="49" t="s">
+      <c r="D60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="16" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="49" t="s">
+      <c r="D61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="16" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="49" t="s">
+      <c r="D62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="16" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="49" t="s">
+      <c r="D63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="16" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="49" t="s">
+      <c r="D64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36" t="s">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="52" t="s">
+      <c r="D65" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="28"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="4" t="s">
+      <c r="D67" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="43" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="16" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="D68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="44" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="16" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="D69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="44" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="16" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="D70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="16" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="D71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="19" t="s">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="D72" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="D74" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="16" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="D75" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="16" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="D76" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="51" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="16" t="s">
+      <c r="I76" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="D77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="16" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="D78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31"/>
+      <c r="B79" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="11" t="s">
+      <c r="D79" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="26" t="s">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="17" t="s">
+      <c r="C81" s="53"/>
+      <c r="D81" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="16" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="18" t="s">
+      <c r="C82" s="52"/>
+      <c r="D82" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="16" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="18" t="s">
+      <c r="C83" s="52"/>
+      <c r="D83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="16" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="18" t="s">
+      <c r="C84" s="52"/>
+      <c r="D84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="16" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="18" t="s">
+      <c r="C85" s="52"/>
+      <c r="D85" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="16" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="18" t="s">
+      <c r="C86" s="52"/>
+      <c r="D86" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="16" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="18" t="s">
+      <c r="C87" s="52"/>
+      <c r="D87" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="16" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="18" t="s">
+      <c r="C88" s="52"/>
+      <c r="D88" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="19" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="36"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31"/>
+      <c r="B90" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="22" t="s">
+      <c r="C90" s="54"/>
+      <c r="D90" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="26" t="s">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="17" t="s">
+      <c r="C92" s="53"/>
+      <c r="D92" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" s="18" t="s">
+      <c r="C93" s="52"/>
+      <c r="D93" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="16" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="18" t="s">
+      <c r="C94" s="52"/>
+      <c r="D94" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="16" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="18" t="s">
+      <c r="C95" s="52"/>
+      <c r="D95" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="16" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="28"/>
+      <c r="B96" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="18" t="s">
+      <c r="C96" s="52"/>
+      <c r="D96" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="16" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="18" t="s">
+      <c r="C97" s="52"/>
+      <c r="D97" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="16" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" s="18" t="s">
+      <c r="C98" s="52"/>
+      <c r="D98" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="16" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" s="18" t="s">
+      <c r="C99" s="52"/>
+      <c r="D99" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="16" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="18" t="s">
+      <c r="C100" s="52"/>
+      <c r="D100" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="16" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="18" t="s">
+      <c r="C101" s="52"/>
+      <c r="D101" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="16" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" s="18" t="s">
+      <c r="C102" s="52"/>
+      <c r="D102" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="16" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="18" t="s">
+      <c r="C103" s="52"/>
+      <c r="D103" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="16" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="18" t="s">
+      <c r="C104" s="52"/>
+      <c r="D104" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="16" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="18" t="s">
+      <c r="C105" s="52"/>
+      <c r="D105" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="16" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" s="18" t="s">
+      <c r="C106" s="52"/>
+      <c r="D106" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="16" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" s="18" t="s">
+      <c r="C107" s="52"/>
+      <c r="D107" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="16" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" s="18" t="s">
+      <c r="C108" s="52"/>
+      <c r="D108" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="19" t="s">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" s="22" t="s">
+      <c r="C109" s="54"/>
+      <c r="D109" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="34" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3944,569 +4016,569 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>100</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>100</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>100</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>100</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>100</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>100</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>100</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>100</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>100</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>100</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4517,21 +4589,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6268CE7-055C-4EEB-B5AE-4C7D3BC4374C}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -4552,6 +4624,14 @@
       </c>
       <c r="G1" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4567,13 +4647,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -4583,13 +4663,13 @@
       <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4606,15 +4686,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4661,13 +4741,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4689,7 +4769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>

--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E5E68C-9072-4CD5-912D-4209E0C1141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37CE708-9E8C-4FD8-B844-0A8A5D86653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27735" yWindow="915" windowWidth="27000" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1270,6 +1270,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1553,8 +1565,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92:K93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,49 +3231,49 @@
       <c r="A74" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="43" t="s">
+      <c r="D74" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="59" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="44" t="s">
+      <c r="D75" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="51" t="s">
         <v>109</v>
       </c>
     </row>

--- a/ws-subprg/ws_subprgList_appCore.xlsx
+++ b/ws-subprg/ws_subprgList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\ws-subprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37CE708-9E8C-4FD8-B844-0A8A5D86653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF32F26-9C09-44B6-8636-EA41CEB81C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27735" yWindow="915" windowWidth="27000" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sottoprogramma" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="255">
   <si>
     <t>Nome</t>
   </si>
@@ -104,9 +104,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>YSMR_ENT</t>
-  </si>
-  <si>
     <t>C_STOENT</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Decimale</t>
   </si>
   <si>
-    <t>YSMO</t>
-  </si>
-  <si>
     <t>C_STOUSC</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Per Valore</t>
   </si>
   <si>
-    <t>YSOH</t>
-  </si>
-  <si>
     <t>C_FCYSOH</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>YCREA_SOH</t>
   </si>
   <si>
-    <t>YCALCGIAC</t>
-  </si>
-  <si>
     <t>C_GIACFCY</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>YCRC_VBPC</t>
   </si>
   <si>
-    <t>YCSTK</t>
-  </si>
-  <si>
     <t>C_FCYCSTK</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>C- GROPRI YSOH AX3M</t>
   </si>
   <si>
-    <t>YVCSOH</t>
-  </si>
-  <si>
     <t>C QTY YSOH AX3M</t>
   </si>
   <si>
@@ -692,15 +674,9 @@
     <t>YCLEAN_USC</t>
   </si>
   <si>
-    <t>YBPC /YAX3MBPC</t>
-  </si>
-  <si>
     <t>(Libreria per le selezioni custom)</t>
   </si>
   <si>
-    <t>YVBPC / YX3MVBPC</t>
-  </si>
-  <si>
     <t>YCLEAN_SOH</t>
   </si>
   <si>
@@ -720,13 +696,112 @@
   </si>
   <si>
     <t>pulisci</t>
+  </si>
+  <si>
+    <t>YSTCKINV</t>
+  </si>
+  <si>
+    <t>YAX3MDEMOLIB</t>
+  </si>
+  <si>
+    <t>YSAVEINFO</t>
+  </si>
+  <si>
+    <t>Richiesta informazioni demo</t>
+  </si>
+  <si>
+    <t>YNAME</t>
+  </si>
+  <si>
+    <t>YTEL</t>
+  </si>
+  <si>
+    <t>YINTEREST</t>
+  </si>
+  <si>
+    <t>YRECONTACT</t>
+  </si>
+  <si>
+    <t>YPRIVACY</t>
+  </si>
+  <si>
+    <t>YEMAIL</t>
+  </si>
+  <si>
+    <t>Intero</t>
+  </si>
+  <si>
+    <t>Per valore</t>
+  </si>
+  <si>
+    <t>Per indirizzo</t>
+  </si>
+  <si>
+    <t>YGET_DEMOUSR</t>
+  </si>
+  <si>
+    <t>YAX3MAUTHLIB</t>
+  </si>
+  <si>
+    <t>Lettura utente demo</t>
+  </si>
+  <si>
+    <t>OLD: YSMR_ENT</t>
+  </si>
+  <si>
+    <t>YAX3MSMR</t>
+  </si>
+  <si>
+    <t>OLD: YSMO</t>
+  </si>
+  <si>
+    <t>YAX3MSMO</t>
+  </si>
+  <si>
+    <t>OLD: YSOH</t>
+  </si>
+  <si>
+    <t>YAX3MSOH</t>
+  </si>
+  <si>
+    <t>OLD: YCALCGIAC</t>
+  </si>
+  <si>
+    <t>YAX3MVCG</t>
+  </si>
+  <si>
+    <t>OLD: YBPC</t>
+  </si>
+  <si>
+    <t>YAX3MBPC</t>
+  </si>
+  <si>
+    <t>OLD: YVCSOH</t>
+  </si>
+  <si>
+    <t>YAX3MVSO</t>
+  </si>
+  <si>
+    <t>OLD: YVBPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YAX3MVBP</t>
+  </si>
+  <si>
+    <t>OLD: YCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MCSK</t>
+  </si>
+  <si>
+    <t>YDEM_USR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +816,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -769,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1135,11 +1216,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1282,6 +1398,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1562,23 +1696,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11CF176-524D-4F01-A4B5-47E90085D90F}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="8" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -1604,42 +1738,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
@@ -1651,19 +1787,19 @@
         <v>23</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -1675,19 +1811,19 @@
         <v>23</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
@@ -1699,19 +1835,19 @@
         <v>23</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
@@ -1723,19 +1859,19 @@
         <v>23</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>21</v>
@@ -1747,17 +1883,17 @@
         <v>23</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
@@ -1769,19 +1905,19 @@
         <v>23</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>21</v>
@@ -1793,10 +1929,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1805,42 +1941,44 @@
       <c r="G10" s="5"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>21</v>
@@ -1852,19 +1990,19 @@
         <v>23</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>21</v>
@@ -1876,19 +2014,19 @@
         <v>23</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>21</v>
@@ -1900,19 +2038,19 @@
         <v>23</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
@@ -1924,19 +2062,19 @@
         <v>23</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>21</v>
@@ -1948,17 +2086,17 @@
         <v>23</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
@@ -1970,19 +2108,19 @@
         <v>23</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>21</v>
@@ -1994,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2006,42 +2144,44 @@
       <c r="G19" s="5"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
@@ -2053,19 +2193,19 @@
         <v>23</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>21</v>
@@ -2077,19 +2217,19 @@
         <v>23</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>21</v>
@@ -2101,19 +2241,19 @@
         <v>23</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>21</v>
@@ -2125,19 +2265,19 @@
         <v>23</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>21</v>
@@ -2149,19 +2289,19 @@
         <v>23</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>21</v>
@@ -2173,19 +2313,19 @@
         <v>23</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>21</v>
@@ -2197,19 +2337,19 @@
         <v>23</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
@@ -2221,19 +2361,19 @@
         <v>23</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>21</v>
@@ -2245,17 +2385,17 @@
         <v>23</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>21</v>
@@ -2267,17 +2407,17 @@
         <v>23</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="35" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>21</v>
@@ -2290,16 +2430,16 @@
       </c>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>21</v>
@@ -2311,10 +2451,10 @@
         <v>23</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2323,18 +2463,18 @@
       <c r="G33" s="5"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>21</v>
@@ -2346,19 +2486,21 @@
         <v>23</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="B35" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
@@ -2370,19 +2512,19 @@
         <v>23</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>21</v>
@@ -2394,19 +2536,19 @@
         <v>23</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>21</v>
@@ -2418,19 +2560,19 @@
         <v>23</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>21</v>
@@ -2442,10 +2584,10 @@
         <v>23</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2455,18 +2597,18 @@
       <c r="G39" s="5"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>21</v>
@@ -2478,17 +2620,19 @@
         <v>23</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>246</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>21</v>
@@ -2500,19 +2644,19 @@
         <v>23</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>21</v>
@@ -2524,19 +2668,19 @@
         <v>23</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>21</v>
@@ -2548,19 +2692,19 @@
         <v>23</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>21</v>
@@ -2572,19 +2716,19 @@
         <v>23</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>21</v>
@@ -2596,19 +2740,19 @@
         <v>23</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>21</v>
@@ -2620,19 +2764,19 @@
         <v>23</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>21</v>
@@ -2644,19 +2788,19 @@
         <v>23</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>21</v>
@@ -2668,19 +2812,19 @@
         <v>23</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>21</v>
@@ -2692,19 +2836,19 @@
         <v>23</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>21</v>
@@ -2716,19 +2860,19 @@
         <v>23</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>21</v>
@@ -2740,19 +2884,19 @@
         <v>23</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>21</v>
@@ -2764,17 +2908,17 @@
         <v>23</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>21</v>
@@ -2786,19 +2930,19 @@
         <v>23</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="39"/>
       <c r="B54" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>21</v>
@@ -2810,10 +2954,10 @@
         <v>23</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2822,18 +2966,18 @@
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>181</v>
+        <v>96</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>21</v>
@@ -2845,19 +2989,19 @@
         <v>23</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>21</v>
@@ -2869,19 +3013,19 @@
         <v>23</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>21</v>
@@ -2893,19 +3037,19 @@
         <v>23</v>
       </c>
       <c r="H58" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>21</v>
@@ -2917,19 +3061,19 @@
         <v>23</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>21</v>
@@ -2941,19 +3085,19 @@
         <v>23</v>
       </c>
       <c r="H60" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>21</v>
@@ -2965,19 +3109,19 @@
         <v>23</v>
       </c>
       <c r="H61" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>21</v>
@@ -2989,19 +3133,19 @@
         <v>23</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>21</v>
@@ -3013,19 +3157,19 @@
         <v>23</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>21</v>
@@ -3037,19 +3181,19 @@
         <v>23</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31"/>
       <c r="B65" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>21</v>
@@ -3061,10 +3205,10 @@
         <v>23</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3072,18 +3216,18 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>21</v>
@@ -3095,19 +3239,21 @@
         <v>23</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>248</v>
+      </c>
       <c r="B68" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>21</v>
@@ -3119,19 +3265,19 @@
         <v>23</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>21</v>
@@ -3143,19 +3289,19 @@
         <v>23</v>
       </c>
       <c r="H69" s="44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>21</v>
@@ -3167,19 +3313,19 @@
         <v>23</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>21</v>
@@ -3191,19 +3337,19 @@
         <v>23</v>
       </c>
       <c r="H71" s="44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31"/>
       <c r="B72" s="32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>21</v>
@@ -3215,10 +3361,10 @@
         <v>23</v>
       </c>
       <c r="H72" s="47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3227,18 +3373,18 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E74" s="57" t="s">
         <v>21</v>
@@ -3250,19 +3396,21 @@
         <v>23</v>
       </c>
       <c r="H74" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>250</v>
+      </c>
       <c r="B75" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>21</v>
@@ -3274,19 +3422,19 @@
         <v>23</v>
       </c>
       <c r="H75" s="51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E76" s="49" t="s">
         <v>21</v>
@@ -3298,22 +3446,22 @@
         <v>23</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>21</v>
@@ -3325,19 +3473,19 @@
         <v>23</v>
       </c>
       <c r="H77" s="44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>21</v>
@@ -3349,19 +3497,19 @@
         <v>23</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31"/>
       <c r="B79" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>21</v>
@@ -3373,10 +3521,10 @@
         <v>23</v>
       </c>
       <c r="H79" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3385,16 +3533,16 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E81" s="26" t="s">
         <v>21</v>
@@ -3406,17 +3554,19 @@
         <v>23</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>252</v>
+      </c>
       <c r="B82" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C82" s="52"/>
       <c r="D82" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>21</v>
@@ -3428,17 +3578,17 @@
         <v>23</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C83" s="52"/>
       <c r="D83" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>21</v>
@@ -3450,17 +3600,17 @@
         <v>23</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C84" s="52"/>
       <c r="D84" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>21</v>
@@ -3472,17 +3622,17 @@
         <v>23</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C85" s="52"/>
       <c r="D85" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>21</v>
@@ -3494,17 +3644,17 @@
         <v>23</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>21</v>
@@ -3516,17 +3666,17 @@
         <v>23</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C87" s="52"/>
       <c r="D87" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>21</v>
@@ -3538,17 +3688,17 @@
         <v>23</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="28"/>
       <c r="B88" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C88" s="52"/>
       <c r="D88" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>21</v>
@@ -3560,17 +3710,17 @@
         <v>23</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="35" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C89" s="52"/>
       <c r="D89" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>21</v>
@@ -3583,14 +3733,14 @@
       </c>
       <c r="H89" s="36"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="31"/>
       <c r="B90" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>21</v>
@@ -3602,251 +3752,135 @@
         <v>23</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" s="52"/>
-      <c r="D94" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="61"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="28"/>
+      <c r="B93" s="62"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="62"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
-      <c r="B95" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="52"/>
-      <c r="D95" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="62"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="29"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
-      <c r="B96" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="62"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
-      <c r="B97" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" s="52"/>
-      <c r="D97" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="62"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
-      <c r="B98" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="52"/>
-      <c r="D99" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="52"/>
-      <c r="D100" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="52"/>
-      <c r="D101" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
+      <c r="B98" s="62"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="31"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="34"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="53"/>
+      <c r="D101" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="B102" s="14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C102" s="52"/>
       <c r="D102" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>21</v>
@@ -3858,17 +3892,19 @@
         <v>23</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="55" t="s">
+        <v>220</v>
+      </c>
       <c r="B103" s="14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C103" s="52"/>
       <c r="D103" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>21</v>
@@ -3880,17 +3916,17 @@
         <v>23</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" s="14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C104" s="52"/>
       <c r="D104" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>21</v>
@@ -3902,17 +3938,17 @@
         <v>23</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" s="14" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C105" s="52"/>
       <c r="D105" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>21</v>
@@ -3924,17 +3960,17 @@
         <v>23</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C106" s="52"/>
       <c r="D106" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>21</v>
@@ -3946,17 +3982,17 @@
         <v>23</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C107" s="52"/>
       <c r="D107" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>21</v>
@@ -3968,17 +4004,17 @@
         <v>23</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="28"/>
       <c r="B108" s="14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C108" s="52"/>
       <c r="D108" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>21</v>
@@ -3990,59 +4026,339 @@
         <v>23</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="31"/>
-      <c r="B109" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="34" t="s">
-        <v>140</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="28"/>
+      <c r="B109" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="52"/>
+      <c r="D109" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="28"/>
+      <c r="B110" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="52"/>
+      <c r="D110" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="28"/>
+      <c r="B111" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
+      <c r="B112" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="52"/>
+      <c r="D112" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="28"/>
+      <c r="B113" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="28"/>
+      <c r="B114" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="52"/>
+      <c r="D114" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="28"/>
+      <c r="B115" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="52"/>
+      <c r="D115" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="28"/>
+      <c r="B116" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="52"/>
+      <c r="D116" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="28"/>
+      <c r="B117" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="52"/>
+      <c r="D117" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="31"/>
+      <c r="B118" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="54"/>
+      <c r="D118" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="66"/>
+      <c r="B121" s="28"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="64"/>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="67"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="65"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="67"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BD388-3A0C-4C89-946B-F584CA19B428}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -4051,81 +4367,81 @@
         <v>2</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -4134,18 +4450,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -4154,228 +4470,228 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5">
         <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5">
         <v>100</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5">
         <v>100</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5">
         <v>100</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="8">
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>9</v>
@@ -4384,18 +4700,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>9</v>
@@ -4404,194 +4720,322 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5">
         <v>100</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5">
         <v>100</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5">
         <v>100</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5">
         <v>100</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="5">
         <v>100</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="5">
         <v>100</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E27" s="8">
         <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>88</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4607,43 +5051,43 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4659,30 +5103,30 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" t="s">
-        <v>204</v>
-      </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4698,15 +5142,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4723,7 +5167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4753,13 +5197,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4770,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +5225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
